--- a/Spring Annotation Note.xlsx
+++ b/Spring Annotation Note.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.151.49087"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Spring" sheetId="1" r:id="rId1"/>
+    <sheet name="리액트" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -23,8 +23,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>configuration</t>
   </si>
@@ -135,6 +142,45 @@
   </si>
   <si>
     <t>@PathVariable - 메소드의 파라미터 자리</t>
+  </si>
+  <si>
+    <t>useState</t>
+  </si>
+  <si>
+    <t>useEffect</t>
+  </si>
+  <si>
+    <t>useRet</t>
+  </si>
+  <si>
+    <t>useNavigate</t>
+  </si>
+  <si>
+    <t>useCallback</t>
+  </si>
+  <si>
+    <t>useMemo</t>
+  </si>
+  <si>
+    <t>메모리 제이션 - 값</t>
+  </si>
+  <si>
+    <t>화면전환</t>
+  </si>
+  <si>
+    <t>useRef</t>
+  </si>
+  <si>
+    <t>사용자 입력 컴포넌트를 기억</t>
+  </si>
+  <si>
+    <t>의존성 배열</t>
+  </si>
+  <si>
+    <t>리렌더링</t>
+  </si>
+  <si>
+    <t>리렌더링(DomTree, Render Tree)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -474,7 +519,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -483,7 +527,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -492,7 +535,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -501,7 +543,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -516,7 +557,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -531,7 +571,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -546,7 +585,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -555,7 +593,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -566,7 +603,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -718,14 +754,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1051,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1105,29 +1138,29 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
@@ -1197,17 +1230,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="49.75500107" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
